--- a/35_Mr_Parks/Mr_Parks_Data.xlsx
+++ b/35_Mr_Parks/Mr_Parks_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,19 +11,245 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Mr. Parks</t>
+  </si>
+  <si>
+    <t>N. Subject</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>63/45</t>
+  </si>
+  <si>
+    <t>120 / 81</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>Beats / Min</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>degree F</t>
+  </si>
+  <si>
+    <t>Respiration Rate</t>
+  </si>
+  <si>
+    <t>Breaths / Min</t>
+  </si>
+  <si>
+    <t>Mr. Parks initial stats</t>
+  </si>
+  <si>
+    <t>Calculating Mr. Parks Cardiac Output</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Pulse Pressure</t>
+  </si>
+  <si>
+    <t>Proportionality</t>
+  </si>
+  <si>
+    <t>mL/mmHg</t>
+  </si>
+  <si>
+    <t>/Min</t>
+  </si>
+  <si>
+    <t>Cardiac Output</t>
+  </si>
+  <si>
+    <t>mL/Min</t>
+  </si>
+  <si>
+    <t>Mr. Parks actual Stroke Volume and Cardiac Output</t>
+  </si>
+  <si>
+    <t>Stroke Volume</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>Blood Volume</t>
+  </si>
+  <si>
+    <t>Red Cell Volume</t>
+  </si>
+  <si>
+    <t>Plasma Volume</t>
+  </si>
+  <si>
+    <t>Hematocrit</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>General Autonomic Firing Rate</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Renal Autonomic Firing Rate</t>
+  </si>
+  <si>
+    <t>Plasma [AII]</t>
+  </si>
+  <si>
+    <t>pG/mL</t>
+  </si>
+  <si>
+    <t>Brain Blood Flow</t>
+  </si>
+  <si>
+    <t>Hepatic Vein Blood Flow</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Saline</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>86/61</t>
+  </si>
+  <si>
+    <t>100/65</t>
+  </si>
+  <si>
+    <t>102 /72</t>
+  </si>
+  <si>
+    <r>
+      <t>Arterial O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Venous O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Content</t>
+    </r>
+  </si>
+  <si>
+    <t>30 Min</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Sodium Excretion</t>
+  </si>
+  <si>
+    <t>mEq/Min</t>
+  </si>
+  <si>
+    <t>Water Excretion</t>
+  </si>
+  <si>
+    <t>30 Days</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,12 +268,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +641,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:D55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4">
+        <v>73</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60.75" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>92</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3146.4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="75">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4">
+        <v>73</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2878</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5368</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3639</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5400</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1603</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2400</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2036</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4">
+        <v>20</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>706</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1217</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:5" ht="32.25" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>92</v>
+      </c>
+      <c r="C38" s="5">
+        <v>99</v>
+      </c>
+      <c r="D38" s="5">
+        <v>89</v>
+      </c>
+      <c r="E38" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3639</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3770</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4198</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1603</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1408</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1409</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2036</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2362</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2789</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44</v>
+      </c>
+      <c r="C42" s="5">
+        <v>37</v>
+      </c>
+      <c r="D42" s="5">
+        <v>34</v>
+      </c>
+      <c r="E42" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2878</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4141</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5082</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="35.25" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="35.25" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="47" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.114</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="51" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5575</v>
+      </c>
+      <c r="C52" s="4">
+        <v>5400</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2526</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2400</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3050</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/35_Mr_Parks/Mr_Parks_Data.xlsx
+++ b/35_Mr_Parks/Mr_Parks_Data.xlsx
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Renal Autonomic Firing Rate</t>
-  </si>
-  <si>
-    <t>Plasma [AII]</t>
   </si>
   <si>
     <t>pG/mL</t>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>30 Days</t>
+  </si>
+  <si>
+    <t>Plasma [AngII]</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4">
         <v>50</v>
@@ -961,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1"/>
@@ -981,7 +981,7 @@
     </row>
     <row r="33" spans="1:5" ht="30.75" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="34" spans="1:5" ht="30.75" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -1013,16 +1013,16 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30.75" thickBot="1">
@@ -1033,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
@@ -1146,7 +1146,7 @@
     </row>
     <row r="44" spans="1:5" ht="35.25" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="5">
         <v>0.19</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="45" spans="1:5" ht="35.25" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="5">
         <v>0.12</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="48" spans="1:5" ht="30.75" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4">
         <v>1.4E-2</v>
@@ -1204,12 +1204,12 @@
         <v>0.114</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30.75" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4">
         <v>0.2</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>3</v>

--- a/35_Mr_Parks/Mr_Parks_Data.xlsx
+++ b/35_Mr_Parks/Mr_Parks_Data.xlsx
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -984,7 +984,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="4">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="C33" s="4">
         <v>706</v>
@@ -998,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="C34" s="4">
         <v>1217</v>
